--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.020620-3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Travers.Spring.020620-3.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1185,12 +1185,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1605,12 +1605,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1941,12 +1941,12 @@
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       <c r="H44" t="inlineStr"/>
       <c r="I44" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2361,12 +2361,12 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2701,12 +2701,12 @@
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3167,12 +3167,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3507,12 +3507,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3549,12 +3549,12 @@
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3973,12 +3973,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4015,12 +4015,12 @@
       <c r="H85" t="inlineStr"/>
       <c r="I85" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4519,12 +4519,12 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4897,12 +4897,12 @@
       <c r="H106" t="inlineStr"/>
       <c r="I106" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5527,12 +5527,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -5737,12 +5737,12 @@
       <c r="H126" t="inlineStr"/>
       <c r="I126" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5947,12 +5947,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5989,12 +5989,12 @@
       <c r="H132" t="inlineStr"/>
       <c r="I132" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6283,12 +6283,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6745,12 +6745,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6829,12 +6829,12 @@
       <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6913,12 +6913,12 @@
       <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7543,12 +7543,12 @@
       <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7585,12 +7585,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7627,12 +7627,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7921,12 +7921,12 @@
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -8047,12 +8047,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8131,12 +8131,12 @@
       <c r="H183" t="inlineStr"/>
       <c r="I183" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8803,12 +8803,12 @@
       <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9143,12 +9143,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9353,12 +9353,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9395,12 +9395,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9689,12 +9689,12 @@
       <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10025,12 +10025,12 @@
       <c r="H228" t="inlineStr"/>
       <c r="I228" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10151,12 +10151,12 @@
       <c r="H231" t="inlineStr"/>
       <c r="I231" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10827,12 +10827,12 @@
       <c r="H247" t="inlineStr"/>
       <c r="I247" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10953,12 +10953,12 @@
       <c r="H250" t="inlineStr"/>
       <c r="I250" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11079,12 +11079,12 @@
       </c>
       <c r="I253" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11121,12 +11121,12 @@
       </c>
       <c r="I254" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -11331,12 +11331,12 @@
       <c r="H259" t="inlineStr"/>
       <c r="I259" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11751,12 +11751,12 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11881,12 +11881,12 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12091,12 +12091,12 @@
       <c r="H277" t="inlineStr"/>
       <c r="I277" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -12721,12 +12721,12 @@
       <c r="H292" t="inlineStr"/>
       <c r="I292" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13565,12 +13565,12 @@
       <c r="H312" t="inlineStr"/>
       <c r="I312" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14531,12 +14531,12 @@
       </c>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15371,12 +15371,12 @@
       </c>
       <c r="I355" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J355" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15539,12 +15539,12 @@
       </c>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15623,12 +15623,12 @@
       </c>
       <c r="I361" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J361" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15707,12 +15707,12 @@
       </c>
       <c r="I363" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16005,12 +16005,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16593,12 +16593,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17063,12 +17063,12 @@
       <c r="H395" t="inlineStr"/>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17147,12 +17147,12 @@
       <c r="H397" t="inlineStr"/>
       <c r="I397" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J397" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17357,12 +17357,12 @@
       <c r="H402" t="inlineStr"/>
       <c r="I402" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J402" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -17525,12 +17525,12 @@
       </c>
       <c r="I406" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J406" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17609,12 +17609,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17697,12 +17697,12 @@
       </c>
       <c r="I410" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J410" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17739,12 +17739,12 @@
       <c r="H411" t="inlineStr"/>
       <c r="I411" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J411" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18205,12 +18205,12 @@
       <c r="H422" t="inlineStr"/>
       <c r="I422" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J422" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18247,12 +18247,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18419,12 +18419,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18587,12 +18587,12 @@
       <c r="H431" t="inlineStr"/>
       <c r="I431" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J431" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -18671,12 +18671,12 @@
       <c r="H433" t="inlineStr"/>
       <c r="I433" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J433" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19259,12 +19259,12 @@
       </c>
       <c r="I447" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -19301,12 +19301,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19343,12 +19343,12 @@
       <c r="H449" t="inlineStr"/>
       <c r="I449" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J449" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19427,12 +19427,12 @@
       </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J451" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19511,12 +19511,12 @@
       <c r="H453" t="inlineStr"/>
       <c r="I453" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J453" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19679,12 +19679,12 @@
       <c r="H457" t="inlineStr"/>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19847,12 +19847,12 @@
       <c r="H461" t="inlineStr"/>
       <c r="I461" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J461" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19889,12 +19889,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20183,12 +20183,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20225,12 +20225,12 @@
       <c r="H470" t="inlineStr"/>
       <c r="I470" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J470" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20779,12 +20779,12 @@
       </c>
       <c r="I483" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J483" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20905,12 +20905,12 @@
       </c>
       <c r="I486" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20947,12 +20947,12 @@
       </c>
       <c r="I487" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J487" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21073,12 +21073,12 @@
       <c r="H490" t="inlineStr"/>
       <c r="I490" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J490" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21283,12 +21283,12 @@
       <c r="H495" t="inlineStr"/>
       <c r="I495" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J495" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21451,12 +21451,12 @@
       <c r="H499" t="inlineStr"/>
       <c r="I499" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21577,12 +21577,12 @@
       </c>
       <c r="I502" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J502" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21955,12 +21955,12 @@
       <c r="H511" t="inlineStr"/>
       <c r="I511" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J511" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22463,12 +22463,12 @@
       <c r="H523" t="inlineStr"/>
       <c r="I523" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J523" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22589,12 +22589,12 @@
       <c r="H526" t="inlineStr"/>
       <c r="I526" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J526" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22673,12 +22673,12 @@
       </c>
       <c r="I528" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22883,12 +22883,12 @@
       <c r="H533" t="inlineStr"/>
       <c r="I533" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J533" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23135,12 +23135,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23261,12 +23261,12 @@
       </c>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23345,12 +23345,12 @@
       <c r="H544" t="inlineStr"/>
       <c r="I544" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J544" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23681,12 +23681,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23723,12 +23723,12 @@
       <c r="H553" t="inlineStr"/>
       <c r="I553" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J553" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
